--- a/numero_materiais_cadernos8.xlsx
+++ b/numero_materiais_cadernos8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="13">
   <si>
     <t>Tipo de material</t>
   </si>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,43 +439,43 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>44228</v>
+        <v>43831</v>
       </c>
       <c r="D2">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="D3">
-        <v>20473</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="D4">
-        <v>3485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -484,693 +484,2443 @@
         <v>44317</v>
       </c>
       <c r="D5">
-        <v>2310</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="D6">
-        <v>679</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>44378</v>
+        <v>44256</v>
       </c>
       <c r="D7">
-        <v>173</v>
+        <v>21060</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>44348</v>
+        <v>44228</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>70310</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>44317</v>
+        <v>44197</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>79814</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>44287</v>
+        <v>44166</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>44256</v>
+        <v>44136</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
         <v>44348</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>44317</v>
+        <v>44075</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>44256</v>
+        <v>44044</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>44287</v>
+        <v>44013</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>44348</v>
+        <v>43983</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>44378</v>
+        <v>43952</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>44317</v>
+        <v>43922</v>
       </c>
       <c r="D18">
-        <v>113</v>
+        <v>12916</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>44287</v>
+        <v>43891</v>
       </c>
       <c r="D19">
-        <v>521</v>
+        <v>16108</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>44228</v>
+        <v>43862</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>44256</v>
+        <v>44105</v>
       </c>
       <c r="D21">
-        <v>550</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="D22">
-        <v>521</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>44228</v>
+        <v>44287</v>
       </c>
       <c r="D23">
-        <v>271</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="D24">
-        <v>6600</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="D25">
-        <v>22858</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>44287</v>
+        <v>44197</v>
       </c>
       <c r="D26">
-        <v>5795</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>44317</v>
+        <v>44166</v>
       </c>
       <c r="D27">
-        <v>4177</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>44317</v>
+        <v>44136</v>
       </c>
       <c r="D28">
-        <v>5203</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
-        <v>44287</v>
+        <v>44013</v>
       </c>
       <c r="D29">
-        <v>9361</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>44256</v>
+        <v>44075</v>
       </c>
       <c r="D30">
-        <v>39647</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>44228</v>
+        <v>44044</v>
       </c>
       <c r="D31">
-        <v>671</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>44378</v>
+        <v>43983</v>
       </c>
       <c r="D32">
-        <v>759</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2">
-        <v>44348</v>
+        <v>43952</v>
       </c>
       <c r="D33">
-        <v>6360</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>44228</v>
+        <v>43922</v>
       </c>
       <c r="D34">
-        <v>459</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="D35">
-        <v>8806</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>44287</v>
+        <v>44105</v>
       </c>
       <c r="D36">
-        <v>3587</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="D37">
-        <v>3543</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>44348</v>
+        <v>43831</v>
       </c>
       <c r="D38">
-        <v>1247</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>44378</v>
+        <v>43891</v>
       </c>
       <c r="D39">
-        <v>153</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="D40">
-        <v>7847</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2">
         <v>44317</v>
       </c>
       <c r="D41">
-        <v>4644</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="D42">
-        <v>17379</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>44378</v>
+        <v>44256</v>
       </c>
       <c r="D43">
-        <v>555</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>44348</v>
+        <v>44228</v>
       </c>
       <c r="D44">
-        <v>5077</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="D45">
-        <v>330</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2">
-        <v>44287</v>
+        <v>43831</v>
       </c>
       <c r="D46">
-        <v>4993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>44317</v>
+        <v>43862</v>
       </c>
       <c r="D47">
-        <v>4703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C48" s="2">
-        <v>44256</v>
+        <v>44075</v>
       </c>
       <c r="D48">
-        <v>11291</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>44378</v>
+        <v>44044</v>
       </c>
       <c r="D49">
-        <v>1902</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2">
-        <v>44348</v>
+        <v>44013</v>
       </c>
       <c r="D50">
-        <v>1815</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>44228</v>
+        <v>43983</v>
       </c>
       <c r="D51">
-        <v>274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2">
-        <v>44348</v>
+        <v>43922</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2">
-        <v>44317</v>
+        <v>43891</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D56">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D57">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D58">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D59">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D60">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D61">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D62">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D63">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D64">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>111</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>112</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D68">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>114</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D69">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D70">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>117</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D71">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>118</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D72">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>54</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D76">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>55</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D77">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D78">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>58</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D79">
+        <v>38046</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>59</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D80">
+        <v>28618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>60</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D81">
+        <v>22967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>61</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D82">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>62</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D83">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D84">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>57</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D85">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D86">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>49</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D87">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D88">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>51</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D89">
+        <v>6602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D90">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>53</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D91">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D93">
+        <v>14369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>64</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D94">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D95">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>123</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D96">
+        <v>19008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>139</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>138</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D98">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D99">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>136</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D100">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>135</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D101">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>134</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D102">
+        <v>40177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>133</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D103">
+        <v>78993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>122</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D104">
+        <v>19666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>132</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D105">
+        <v>88276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>130</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D106">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>129</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D107">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>128</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D108">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D109">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>125</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D110">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D111">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D112">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>131</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D113">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D114">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>126</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D115">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D116">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>39</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D118">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D119">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>35</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D120">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>34</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D121">
+        <v>8985</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>33</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D122">
+        <v>48247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>32</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D123">
+        <v>32810</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D124">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>30</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D125">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>37</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D126">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>28</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D127">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D128">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>29</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D129">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D130">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D131">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>24</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D132">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D133">
+        <v>11113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>22</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D134">
+        <v>13655</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D135">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>146</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D136">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D137">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>148</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D138">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>150</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D139">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>145</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D140">
+        <v>10386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>151</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D141">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>152</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D142">
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>153</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D143">
+        <v>33162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D144">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D145">
+        <v>11561</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>140</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D146">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>142</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D147">
+        <v>25163</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>141</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D148">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>156</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D149">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>157</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D150">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>158</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D151">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D152">
+        <v>17486</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>143</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D153">
+        <v>17679</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D154">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>167</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D155">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>169</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D156">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>168</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D157">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>174</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D158">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>171</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D159">
+        <v>36899</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>173</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D160">
+        <v>11632</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>172</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D161">
+        <v>70954</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>170</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D162">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D163">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>175</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D164">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D165">
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>177</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D166">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>163</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D167">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>162</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D168">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>161</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D169">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>160</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D170">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>159</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D171">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>176</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D172">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>164</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D173">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>44</v>
+      </c>
+      <c r="B174" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C174" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>45</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="2">
         <v>44378</v>
       </c>
-      <c r="D54">
+      <c r="D175">
         <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>40</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>41</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D177">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>42</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>43</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
